--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27147D81-2FED-463B-87EC-65A72F16A98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>GroupLevel</t>
-  </si>
-  <si>
-    <t>EmpID</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,10 +26,16 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,24 +48,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -338,34 +318,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>GroupName</v>
+      </c>
+      <c r="C1" t="str">
+        <v>GroupLevel</v>
+      </c>
+      <c r="D1" t="str">
+        <v>EmpID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>"G-r"</v>
+      </c>
+      <c r="C2" t="str">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D2" t="str">
+        <v>"0"</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>